--- a/63 Eventos Científicos.xlsx
+++ b/63 Eventos Científicos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Eventos Científicos</t>
   </si>
@@ -22,11 +22,23 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
+    <t>Ambiente y Vida</t>
+  </si>
+  <si>
     <t>INVEMAR - Calidad Ambiental Marina</t>
+  </si>
+  <si>
+    <t>Resiliencia y Saneamiento, RESA</t>
+  </si>
+  <si>
+    <t>217.- Taller : Curso Taller Monitoreo y Analisis de Calidad y Cantidad del agua CÚCUTA, desde 2004-01-01 - hasta Ámbito: Nacional, Tipos de participación: Organizador Instituciones asociadas Nombre de la institución: UNIVERSIDAD FRANCISCO DE PAULA SANTANDER  Tipo de vinculación Patrocinadora</t>
   </si>
   <si>
     <t>1.- Seminario : Seminario Internacional. El monitoreo comunitario del agua: aprendizajes socionaturales para la gestión del territorio SANTA MARTA, desde 2021-06-11 - hasta 2021-06-11 Ámbito: Internacional, Tipos de participación: Ponente Instituciones asociadas Nombre de la institución: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR  Tipo de vinculación Patrocinadora 
  62.- Taller : DISEÑO DE MONITOREO DE CALIDAD AMBIENTAL EN ZONAS MARINO-COSTERAS. Interpretación de parámetros indicadores de calidad y contaminación de aguas marinas y costeras SANTA MARTA, desde 2015-08-26 - hasta 2015-08-28 Ámbito: Nacional, Tipos de participación: Asistente , Organizador Instituciones asociadas Nombre de la institución: INSTITUTO DE INVESTIGACIONES MARINAS Y COSTERAS JOSE BENITO VIVES DE ANDREIS INVEMAR  Tipo de vinculación Patrocinadora</t>
+  </si>
+  <si>
+    <t>27.- Taller : Taller Teorico sobre Muestreo y Monitoreo de Suelos y Aguas Subterráneas BARRANQUILLA, desde 2009-08-24 - hasta 2009-08-24 Ámbito: Nacional, Tipos de participación: Organizador Instituciones asociadas Nombre de la institución: UNIVERSIDAD NACIONAL DE COLOMBIA SEDE BOGOTA  Tipo de vinculación Patrocinadora</t>
   </si>
 </sst>
 </file>
@@ -384,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +415,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
